--- a/evaluation/results/hybrid/autoencoder/LOF/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9163701067615658</v>
+        <v>0.2740213523131673</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="D2">
-        <v>0.1071428571428571</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1132075471698113</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="F2">
-        <v>0.1094890510948905</v>
+        <v>0.2554744525547445</v>
       </c>
       <c r="G2">
-        <v>0.1075862068965517</v>
+        <v>0.6408450704225352</v>
       </c>
       <c r="H2">
-        <v>0.532972177635099</v>
+        <v>0.7765516318887107</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>408</v>
       </c>
       <c r="K2">
-        <v>512</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9534450651769087</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9588014981273408</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="D2">
-        <v>0.9561157796451915</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="C3">
-        <v>0.1071428571428571</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1132075471698113</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9163701067615658</v>
+        <v>0.2740213523131673</v>
       </c>
       <c r="C4">
-        <v>0.9163701067615658</v>
+        <v>0.2740213523131673</v>
       </c>
       <c r="D4">
-        <v>0.9163701067615658</v>
+        <v>0.2740213523131673</v>
       </c>
       <c r="E4">
-        <v>0.9163701067615658</v>
+        <v>0.2740213523131673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5367225325884544</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="C5">
-        <v>0.532972177635099</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="D5">
-        <v>0.5346616634075014</v>
+        <v>0.2512539184952978</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9119211117517246</v>
+        <v>0.9533775180384603</v>
       </c>
       <c r="C6">
-        <v>0.9163701067615658</v>
+        <v>0.2740213523131673</v>
       </c>
       <c r="D6">
-        <v>0.9141203516926812</v>
+        <v>0.3688082196365421</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>512</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
